--- a/Output/Панели Домино ВСТР.xlsx
+++ b/Output/Панели Домино ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Артикул</t>
   </si>
@@ -253,6 +253,9 @@
     <t>DTE1158X</t>
   </si>
   <si>
+    <t>фритюрница</t>
+  </si>
+  <si>
     <t>DTE1168X</t>
   </si>
   <si>
@@ -289,9 +292,6 @@
     <t>Gaggenau</t>
   </si>
   <si>
-    <t>фритюрница</t>
-  </si>
-  <si>
     <t>36 х 49</t>
   </si>
   <si>
@@ -304,25 +304,19 @@
     <t>VG425211</t>
   </si>
   <si>
-    <t>VG491211</t>
+    <t>газовые</t>
   </si>
   <si>
     <t>VI414111</t>
   </si>
   <si>
-    <t>VI462111</t>
-  </si>
-  <si>
-    <t>VI482111</t>
-  </si>
-  <si>
-    <t>VI492111</t>
-  </si>
-  <si>
     <t>CS1122E</t>
   </si>
   <si>
     <t>Miele</t>
+  </si>
+  <si>
+    <t>электрические</t>
   </si>
   <si>
     <t>CS1134E</t>
@@ -676,7 +670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1949,7 +1943,9 @@
       <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s"/>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
       <c r="H17" t="s"/>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
@@ -1973,7 +1969,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1982,7 +1978,7 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -2046,7 +2042,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -2055,7 +2051,7 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -2067,7 +2063,7 @@
         <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s">
@@ -2080,13 +2076,13 @@
         <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
         <v>47</v>
@@ -2095,7 +2091,7 @@
         <v>64</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s">
         <v>40</v>
@@ -2119,12 +2115,12 @@
         <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -2133,7 +2129,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -2145,7 +2141,7 @@
         <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s">
@@ -2173,7 +2169,7 @@
         <v>64</v>
       </c>
       <c r="R20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s">
         <v>40</v>
@@ -2197,15 +2193,15 @@
         <v>42</v>
       </c>
       <c r="Z20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -2214,7 +2210,7 @@
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -2278,12 +2274,12 @@
         <v>42</v>
       </c>
       <c r="Z21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -2292,7 +2288,7 @@
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -2317,13 +2313,13 @@
         <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N22" t="s">
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s">
         <v>47</v>
@@ -2356,22 +2352,22 @@
         <v>42</v>
       </c>
       <c r="Z22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
@@ -2379,12 +2375,12 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s"/>
       <c r="I23" t="s"/>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -2443,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>94</v>
@@ -2454,7 +2450,9 @@
       <c r="F24" t="s">
         <v>30</v>
       </c>
-      <c r="G24" t="s"/>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" t="s"/>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
@@ -2484,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>95</v>
@@ -2495,8 +2493,12 @@
       <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s"/>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
@@ -2519,16 +2521,16 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
@@ -2536,7 +2538,9 @@
       <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="G26" t="s"/>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" t="s"/>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
@@ -2560,16 +2564,16 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -2577,8 +2581,12 @@
       <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s"/>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
       <c r="I27" t="s"/>
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
@@ -2601,16 +2609,16 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -2618,8 +2626,12 @@
       <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s"/>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
       <c r="I28" t="s"/>
       <c r="J28" t="s"/>
       <c r="K28" t="s"/>
@@ -2642,16 +2654,16 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -2659,7 +2671,9 @@
       <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" t="s"/>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
       <c r="H29" t="s"/>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
@@ -2683,16 +2697,16 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
@@ -2700,228 +2714,64 @@
       <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="G30" t="s"/>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
-      <c r="V30" t="s"/>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
-      <c r="Z30" t="s"/>
-      <c r="AA30" t="s"/>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s"/>
-      <c r="J31" t="s"/>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="s"/>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
-      <c r="V31" t="s"/>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
-      <c r="Z31" t="s"/>
-      <c r="AA31" t="s"/>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s"/>
-      <c r="J32" t="s"/>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
-      <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
-      <c r="V32" t="s"/>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
-      <c r="Z32" t="s"/>
-      <c r="AA32" t="s"/>
-    </row>
-    <row r="33" spans="1:27">
-      <c r="A33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s"/>
-      <c r="J33" t="s"/>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
-      <c r="V33" t="s"/>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
-      <c r="Z33" t="s"/>
-      <c r="AA33" t="s"/>
-    </row>
-    <row r="34" spans="1:27">
-      <c r="A34" t="s">
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" t="n">
+        <v>6</v>
+      </c>
+      <c r="V30" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" t="s">
+        <v>42</v>
+      </c>
+      <c r="X30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z30" t="s">
         <v>105</v>
       </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="AA30" t="s">
         <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s"/>
-      <c r="J34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" t="s">
-        <v>82</v>
-      </c>
-      <c r="N34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" t="s">
-        <v>83</v>
-      </c>
-      <c r="P34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>64</v>
-      </c>
-      <c r="R34" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" t="n">
-        <v>6</v>
-      </c>
-      <c r="V34" t="s">
-        <v>42</v>
-      </c>
-      <c r="W34" t="s">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
